--- a/analisis/03_PASO3_HIPOTESIS_T_STUDENT.xlsx
+++ b/analisis/03_PASO3_HIPOTESIS_T_STUDENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,89 +436,84 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>metrica</t>
+          <t>Metrica</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>n_manual</t>
+          <t>N_Manual</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_ia</t>
+          <t>N_IA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>media_manual</t>
+          <t>Media_Manual</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>media_ia</t>
+          <t>Media_IA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>std_manual</t>
+          <t>SD_Manual</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>std_ia</t>
+          <t>SD_IA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>diferencia_medias</t>
+          <t>Diferencia</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pct_diferencia</t>
+          <t>t_statistic_std</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>t_statistic</t>
+          <t>p_value_std</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>p_value</t>
+          <t>t_statistic_welch</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>es_significativo</t>
+          <t>p_value_welch</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>test_usado</t>
+          <t>Cohens_d</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>cohens_d</t>
+          <t>Interpretacion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>interpretacion_d</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>direccion</t>
+          <t>Significativo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>instr_pct</t>
+          <t>Instruction Coverage (%)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -543,42 +538,35 @@
         <v>0.5764166666666632</v>
       </c>
       <c r="I2" t="n">
-        <v>3.261151421714902</v>
+        <v>0.08357445633243105</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08357445633243105</v>
+        <v>0.9350441276338065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9350441276338065</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>✗ NO (p ≥ 0.05)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>t-Student (estándar)</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+        <v>0.08357445633243103</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9350588898977312</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.04825173486090568</v>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Negligible</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Efecto negligible</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Manual &gt; IA</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>branch_pct</t>
+          <t>Branch Coverage (%)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -603,42 +591,35 @@
         <v>2.536458333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05490704712495</v>
+        <v>0.3935308886453862</v>
       </c>
       <c r="J3" t="n">
+        <v>0.702187336897783</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.3935308886453862</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.702187336897783</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✗ NO (p ≥ 0.05)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>t-Student (estándar)</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="L3" t="n">
+        <v>0.7028099954649281</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.2272051644938464</v>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Efecto pequeño</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Manual &gt; IA</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutation_score</t>
+          <t>Mutation Score (%)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -663,42 +644,35 @@
         <v>3.762874999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>25.49869978061444</v>
+        <v>0.4351606632835607</v>
       </c>
       <c r="J4" t="n">
+        <v>0.6726876222917011</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.4351606632835607</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.6726876222917011</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>✗ NO (p ≥ 0.05)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>t-Student (estándar)</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4" t="n">
+        <v>0.6741269956881768</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.2512401260874998</v>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Efecto pequeño</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Manual &gt; IA</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>time_seconds</t>
+          <t>Time (seconds)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -723,35 +697,28 @@
         <v>-0.1115184821428571</v>
       </c>
       <c r="I5" t="n">
-        <v>-57.54969604193317</v>
+        <v>-1.332394857396161</v>
       </c>
       <c r="J5" t="n">
+        <v>0.2122952491574715</v>
+      </c>
+      <c r="K5" t="n">
         <v>-1.332394857396161</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.2292531524231591</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>✗ NO (p ≥ 0.05)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>t-Student Welch</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>-0.7692585295845469</v>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Mediano</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Efecto mediano</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Manual &lt; IA</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
